--- a/data/trans_orig/P45C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P45C-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>579419</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>560479</v>
+        <v>558540</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>597835</v>
+        <v>597053</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8361097831794307</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.808778766317848</v>
+        <v>0.8059813431731482</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8626845932822921</v>
+        <v>0.8615563987525632</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>626</v>
@@ -765,19 +765,19 @@
         <v>623404</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>607004</v>
+        <v>608107</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>636523</v>
+        <v>636255</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9056489633255402</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8818232422066828</v>
+        <v>0.8834261054963179</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9247065365254495</v>
+        <v>0.9243177791590047</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1196</v>
@@ -786,19 +786,19 @@
         <v>1202823</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1179055</v>
+        <v>1175085</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1228001</v>
+        <v>1225002</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8707625069494097</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8535557847593641</v>
+        <v>0.8506820801418108</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8889892021193861</v>
+        <v>0.8868185255502636</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>110748</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>92609</v>
+        <v>94091</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>130367</v>
+        <v>132565</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1598115699631546</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1336361483146519</v>
+        <v>0.1357749723761495</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1881219915158022</v>
+        <v>0.1912925203810927</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>69</v>
@@ -836,19 +836,19 @@
         <v>63982</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>50793</v>
+        <v>51757</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>79829</v>
+        <v>79411</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09294953167975138</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07378947471344813</v>
+        <v>0.07518970982254139</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1159712261458614</v>
+        <v>0.115363648771018</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>178</v>
@@ -857,19 +857,19 @@
         <v>174730</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>150391</v>
+        <v>152605</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>198491</v>
+        <v>201618</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1264929179677708</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1088727526904551</v>
+        <v>0.110475951871305</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.143693908001932</v>
+        <v>0.1459580939747491</v>
       </c>
     </row>
     <row r="6">
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10268</v>
+        <v>10598</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.004078646857414671</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>7.082729872338517e-08</v>
+        <v>7.105215696510536e-08</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0148165535079652</v>
+        <v>0.01529256312578105</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5153</v>
+        <v>5112</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.001401504994708323</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.007485720819025899</v>
+        <v>0.007426749649881417</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -928,19 +928,19 @@
         <v>3791</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>12170</v>
+        <v>12266</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.002744575082819552</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0006874553823800306</v>
+        <v>0.0006884030711687742</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.008810317425140301</v>
+        <v>0.008879782424962571</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>799059</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>773769</v>
+        <v>774041</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>821372</v>
+        <v>820242</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.833631191691239</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8072468137029317</v>
+        <v>0.8075311929057961</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8569098010048324</v>
+        <v>0.8557303645827318</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>795</v>
@@ -1053,19 +1053,19 @@
         <v>852538</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>831508</v>
+        <v>832296</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>871215</v>
+        <v>870949</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8835849750901669</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8617896933857692</v>
+        <v>0.8626057768538792</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9029422864992379</v>
+        <v>0.9026667657807809</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1541</v>
@@ -1074,19 +1074,19 @@
         <v>1651597</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1619163</v>
+        <v>1620459</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1680236</v>
+        <v>1681279</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8586903339583745</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8418270306744349</v>
+        <v>0.842501217763719</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8735798248277998</v>
+        <v>0.8741221723378809</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>145554</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>124458</v>
+        <v>124997</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>170633</v>
+        <v>168932</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1518519114921804</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1298431963851574</v>
+        <v>0.1304055144705379</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1780156903760667</v>
+        <v>0.1762414896951312</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>96</v>
@@ -1124,19 +1124,19 @@
         <v>97410</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>79766</v>
+        <v>80760</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>117430</v>
+        <v>118176</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.100957228526296</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08267106649100586</v>
+        <v>0.08370155541125604</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1217062877127134</v>
+        <v>0.1224799446494483</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>230</v>
@@ -1145,19 +1145,19 @@
         <v>242964</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>216744</v>
+        <v>213675</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>273885</v>
+        <v>273379</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1263207702191006</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1126882916419011</v>
+        <v>0.1110930153824228</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1423967480347706</v>
+        <v>0.1421337765065344</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>13915</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7285</v>
+        <v>7735</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23368</v>
+        <v>23499</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01451689681658058</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00760013141760412</v>
+        <v>0.008070161869429588</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02437917998699388</v>
+        <v>0.02451593741571844</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1195,19 +1195,19 @@
         <v>14915</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8455</v>
+        <v>8405</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23838</v>
+        <v>24169</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01545779638353716</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008763145274296603</v>
+        <v>0.008711549684661419</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02470567777899472</v>
+        <v>0.02504931591128817</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -1216,19 +1216,19 @@
         <v>28830</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19920</v>
+        <v>19468</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41274</v>
+        <v>41344</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01498889582252489</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01035678506047528</v>
+        <v>0.01012161763821287</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02145899854862589</v>
+        <v>0.02149543594126385</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>578276</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>557012</v>
+        <v>560531</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>597283</v>
+        <v>597403</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8532963810662174</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8219194234527248</v>
+        <v>0.8271110656379659</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8813427316931384</v>
+        <v>0.8815190966043014</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>593</v>
@@ -1341,19 +1341,19 @@
         <v>583362</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>565275</v>
+        <v>563358</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>600265</v>
+        <v>599539</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8551436860766178</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8286296971831147</v>
+        <v>0.8258204710141281</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8799210387296742</v>
+        <v>0.8788581056540991</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1140</v>
@@ -1362,19 +1362,19 @@
         <v>1161638</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1134871</v>
+        <v>1134961</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1186082</v>
+        <v>1186059</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8542230784838468</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8345393008661474</v>
+        <v>0.834605877732063</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8721980625045157</v>
+        <v>0.8721809370742549</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>80503</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>63980</v>
+        <v>64317</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>100988</v>
+        <v>96771</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1187886633797661</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09440738268605398</v>
+        <v>0.09490465437003769</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1490162721802901</v>
+        <v>0.1427937841991616</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>83</v>
@@ -1412,19 +1412,19 @@
         <v>81322</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>66040</v>
+        <v>66613</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>99112</v>
+        <v>98026</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1192095120790646</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09680725090155637</v>
+        <v>0.09764732523338275</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1452874791220059</v>
+        <v>0.1436954735508569</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>159</v>
@@ -1433,19 +1433,19 @@
         <v>161825</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>139523</v>
+        <v>138958</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>186291</v>
+        <v>185751</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1189997814142308</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1025997075000324</v>
+        <v>0.1021842310161328</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1369908778370184</v>
+        <v>0.1365942476228877</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>18918</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10922</v>
+        <v>11423</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>29509</v>
+        <v>30202</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02791495555401647</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01611636836425735</v>
+        <v>0.01685575535623957</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04354273987215201</v>
+        <v>0.04456597961708457</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -1483,19 +1483,19 @@
         <v>17496</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10522</v>
+        <v>10105</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>27063</v>
+        <v>27231</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02564680184431755</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01542417997871149</v>
+        <v>0.01481216455093175</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03967150532969081</v>
+        <v>0.03991698564866723</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>35</v>
@@ -1504,19 +1504,19 @@
         <v>36414</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>25447</v>
+        <v>25745</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>50235</v>
+        <v>50262</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02677714010192233</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01871307487059729</v>
+        <v>0.01893216500041089</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03694113054526288</v>
+        <v>0.03696063133711799</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>798643</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>777925</v>
+        <v>778062</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>818826</v>
+        <v>819175</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8499412230499458</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8278922871550149</v>
+        <v>0.8280377515502304</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8714204894065121</v>
+        <v>0.8717917223799555</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>854</v>
@@ -1629,19 +1629,19 @@
         <v>892753</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>868394</v>
+        <v>867674</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>915258</v>
+        <v>913179</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8620584135677581</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8385370110055361</v>
+        <v>0.837841342770121</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.883789547315929</v>
+        <v>0.8817817979858714</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1691</v>
@@ -1650,19 +1650,19 @@
         <v>1691396</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1662439</v>
+        <v>1660967</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1722337</v>
+        <v>1724118</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8562941543846718</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.841634409577558</v>
+        <v>0.840889066893733</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8719587550875539</v>
+        <v>0.8728601468062729</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>121520</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>103980</v>
+        <v>102852</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>141512</v>
+        <v>142166</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1293255871320665</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1106585852989102</v>
+        <v>0.1094580364558309</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1506013609396243</v>
+        <v>0.1512977289085404</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>118</v>
@@ -1700,19 +1700,19 @@
         <v>119877</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>99341</v>
+        <v>101228</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>141387</v>
+        <v>143009</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1157555367258434</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09592543009716996</v>
+        <v>0.09774785964207866</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1365257402881371</v>
+        <v>0.1380920697469664</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>253</v>
@@ -1721,19 +1721,19 @@
         <v>241397</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>212268</v>
+        <v>211105</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>269220</v>
+        <v>270408</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1222109347452135</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1074638802636489</v>
+        <v>0.1068751835350788</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1362968474141082</v>
+        <v>0.1368980573854399</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>19482</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12172</v>
+        <v>12116</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>29966</v>
+        <v>30456</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02073318981798773</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01295361115570081</v>
+        <v>0.01289390163825002</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03189116728265214</v>
+        <v>0.03241186569986885</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>22</v>
@@ -1771,19 +1771,19 @@
         <v>22976</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14958</v>
+        <v>14283</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>34470</v>
+        <v>34448</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02218604970639837</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01444355381584606</v>
+        <v>0.01379145363973982</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03328525413631705</v>
+        <v>0.03326363740247128</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>41</v>
@@ -1792,19 +1792,19 @@
         <v>42458</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>31078</v>
+        <v>30559</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>57592</v>
+        <v>57349</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02149491087011467</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01573358054098823</v>
+        <v>0.01547094987494991</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02915664033182362</v>
+        <v>0.02903359041811183</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>2755397</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2715050</v>
+        <v>2715793</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2798646</v>
+        <v>2797598</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8429219802998451</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8305791151635812</v>
+        <v>0.8308063088925645</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8561524534466122</v>
+        <v>0.8558318376684726</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2868</v>
@@ -1917,19 +1917,19 @@
         <v>2952057</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2909424</v>
+        <v>2911850</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2987872</v>
+        <v>2991941</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8757216266674034</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8630745855145601</v>
+        <v>0.8637943461090517</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8863460244115896</v>
+        <v>0.8875533033298746</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5568</v>
@@ -1938,19 +1938,19 @@
         <v>5707455</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5646670</v>
+        <v>5644075</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5767091</v>
+        <v>5755553</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8595740663130287</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8504195803260918</v>
+        <v>0.850028687947006</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8685556556905182</v>
+        <v>0.8668179116984831</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>458326</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>419808</v>
+        <v>417068</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>496440</v>
+        <v>493669</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1402094533985785</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1284261504445329</v>
+        <v>0.1275879382582348</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1518694112337022</v>
+        <v>0.1510214369556856</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>366</v>
@@ -1988,19 +1988,19 @@
         <v>362591</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>327557</v>
+        <v>325958</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>399783</v>
+        <v>396727</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1075619320311465</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09716899550954909</v>
+        <v>0.09669465640391395</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.118594842445291</v>
+        <v>0.1176882421659786</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>820</v>
@@ -2009,19 +2009,19 @@
         <v>820917</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>766444</v>
+        <v>770629</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>875041</v>
+        <v>876645</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1236345998823088</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1154306701881739</v>
+        <v>0.1160608868160219</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1317859100334986</v>
+        <v>0.1320275093142461</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>55141</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>42263</v>
+        <v>40775</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>71313</v>
+        <v>71734</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01686856630157643</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01292901206384162</v>
+        <v>0.01247373330250917</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0218158423528154</v>
+        <v>0.02194451073057407</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>55</v>
@@ -2059,19 +2059,19 @@
         <v>56351</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>42229</v>
+        <v>42819</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>72248</v>
+        <v>71619</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01671644130145013</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01252723058804069</v>
+        <v>0.01270210593630285</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02143218670027817</v>
+        <v>0.02124561445018671</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>107</v>
@@ -2080,19 +2080,19 @@
         <v>111492</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>90791</v>
+        <v>92439</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>134294</v>
+        <v>134879</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01679133380466255</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01367359626463664</v>
+        <v>0.01392179433862562</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02022537227755782</v>
+        <v>0.02031356930901283</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>573725</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>553975</v>
+        <v>553188</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>591713</v>
+        <v>593145</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8221718445162336</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7938691287443007</v>
+        <v>0.7927422958724476</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8479502074826792</v>
+        <v>0.8500017660286139</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>562</v>
@@ -2445,19 +2445,19 @@
         <v>600735</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>581159</v>
+        <v>579697</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>617900</v>
+        <v>619452</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8644143577859049</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8362456235159214</v>
+        <v>0.8341419823525938</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8891131644565401</v>
+        <v>0.8913471855629356</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1104</v>
@@ -2466,19 +2466,19 @@
         <v>1174459</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1145798</v>
+        <v>1145978</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1199207</v>
+        <v>1200667</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8432498212573563</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8226717891244527</v>
+        <v>0.8228009861081462</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8610188651780818</v>
+        <v>0.8620669593805044</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>110916</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>93619</v>
+        <v>90893</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>130910</v>
+        <v>130208</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1589474277653657</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1341593993467328</v>
+        <v>0.1302541705014645</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1875999861361842</v>
+        <v>0.1865936873721329</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>73</v>
@@ -2516,19 +2516,19 @@
         <v>79860</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>63602</v>
+        <v>64032</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>97974</v>
+        <v>98575</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1149124977737824</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09151885854445727</v>
+        <v>0.09213782956356695</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1409770737838667</v>
+        <v>0.1418426765517238</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>186</v>
@@ -2537,19 +2537,19 @@
         <v>190776</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>167058</v>
+        <v>166471</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>216159</v>
+        <v>218560</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1369750790977038</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1199457516797108</v>
+        <v>0.1195243600178212</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1552002556496926</v>
+        <v>0.1569240427192569</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>13175</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7361</v>
+        <v>6973</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23444</v>
+        <v>21873</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01888072771840067</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01054922858308335</v>
+        <v>0.009992526589799371</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03359583184382182</v>
+        <v>0.0313442760271686</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -2587,19 +2587,19 @@
         <v>14367</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7802</v>
+        <v>7713</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>24010</v>
+        <v>23862</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02067314444031264</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01122590328508175</v>
+        <v>0.01109898091700429</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03454875582560829</v>
+        <v>0.03433523603154973</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>26</v>
@@ -2608,19 +2608,19 @@
         <v>27542</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18528</v>
+        <v>18098</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>40510</v>
+        <v>38784</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01977509964494002</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01330287095797186</v>
+        <v>0.01299394225026106</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02908564618284672</v>
+        <v>0.02784632307702159</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>847425</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>822734</v>
+        <v>821806</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>869084</v>
+        <v>871168</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8406449394505759</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8161513561869508</v>
+        <v>0.8152314058376749</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8621312537982952</v>
+        <v>0.8641983382335041</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>809</v>
@@ -2733,19 +2733,19 @@
         <v>890464</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>866253</v>
+        <v>865146</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>909816</v>
+        <v>909671</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8720219913258548</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8483122913064074</v>
+        <v>0.8472275896859234</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8909728420296986</v>
+        <v>0.8908310643091595</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1585</v>
@@ -2754,19 +2754,19 @@
         <v>1737889</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1705040</v>
+        <v>1703940</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1771747</v>
+        <v>1767556</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8564346176708266</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8402465180210111</v>
+        <v>0.8397046290952785</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8731199710832475</v>
+        <v>0.8710546453189102</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>146840</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>126089</v>
+        <v>123737</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>171391</v>
+        <v>170846</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1456653658384616</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1250806757719364</v>
+        <v>0.1227467126872676</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1700200260450667</v>
+        <v>0.1694795968713236</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>107</v>
@@ -2804,19 +2804,19 @@
         <v>115807</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>97964</v>
+        <v>96034</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>138876</v>
+        <v>139015</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1134080413117918</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09593503735154135</v>
+        <v>0.09404521912200324</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1359996147809487</v>
+        <v>0.136135980004151</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>246</v>
@@ -2825,19 +2825,19 @@
         <v>262647</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>230972</v>
+        <v>233035</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>294941</v>
+        <v>293541</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.129432713499202</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1138232251537387</v>
+        <v>0.1148401259918831</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1453472927018266</v>
+        <v>0.1446576117192983</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>13800</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7283</v>
+        <v>7292</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23395</v>
+        <v>24700</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01368969471096247</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007225040726427187</v>
+        <v>0.007233181759597841</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02320827287541435</v>
+        <v>0.02450287466388291</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -2875,19 +2875,19 @@
         <v>14878</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8365</v>
+        <v>8483</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24591</v>
+        <v>24356</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01456996736235336</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008192106562011253</v>
+        <v>0.008306854988296749</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02408148041801782</v>
+        <v>0.02385151523993432</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -2896,19 +2896,19 @@
         <v>28678</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19300</v>
+        <v>19027</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41209</v>
+        <v>42470</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0141326688299714</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009511182561271484</v>
+        <v>0.009376567220416335</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02030788751259547</v>
+        <v>0.02092941274513483</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>613780</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>593501</v>
+        <v>590575</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>635920</v>
+        <v>634969</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8191142387487498</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7920513567098407</v>
+        <v>0.7881467386919206</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.848661059781008</v>
+        <v>0.8473921352327639</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>592</v>
@@ -3021,19 +3021,19 @@
         <v>657927</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>637883</v>
+        <v>636242</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>676115</v>
+        <v>677442</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8570922718421453</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8309798458695882</v>
+        <v>0.82884242724404</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8807855355165953</v>
+        <v>0.8825148267891705</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1145</v>
@@ -3042,19 +3042,19 @@
         <v>1271708</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1241872</v>
+        <v>1242141</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1299663</v>
+        <v>1299027</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8383324056066357</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8186642596280013</v>
+        <v>0.8188418804823164</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8567608518843158</v>
+        <v>0.8563417716311506</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>125212</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>104773</v>
+        <v>106104</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>144994</v>
+        <v>149065</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1671004629949364</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1398237929472582</v>
+        <v>0.1416006082752783</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1935008619689551</v>
+        <v>0.1989332919904035</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>98</v>
@@ -3092,19 +3092,19 @@
         <v>103685</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>85465</v>
+        <v>84229</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>123534</v>
+        <v>124021</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1350726747941426</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.111336765063399</v>
+        <v>0.1097270909737081</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1609298012586756</v>
+        <v>0.1615641420872184</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>216</v>
@@ -3113,19 +3113,19 @@
         <v>228897</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>202657</v>
+        <v>202770</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>258107</v>
+        <v>256364</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1508933209289371</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.133594982343551</v>
+        <v>0.1336698153608256</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1701489017930467</v>
+        <v>0.1689996841467909</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>10330</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4803</v>
+        <v>4947</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17317</v>
+        <v>18505</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01378529825631383</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006409401465626779</v>
+        <v>0.006602551799635033</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02311022179505576</v>
+        <v>0.02469503509744722</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -3163,19 +3163,19 @@
         <v>6014</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1994</v>
+        <v>2109</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12624</v>
+        <v>12061</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007835053363712105</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002597606416419089</v>
+        <v>0.002747953135825201</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01644544887856904</v>
+        <v>0.01571240385816783</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>16</v>
@@ -3184,19 +3184,19 @@
         <v>16344</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10106</v>
+        <v>9682</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>26474</v>
+        <v>25601</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01077427346442724</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.006662211059220174</v>
+        <v>0.006382734432369784</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01745198677133049</v>
+        <v>0.01687645156796497</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>766213</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>739043</v>
+        <v>738823</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>788118</v>
+        <v>788115</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8117995022663019</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7830134354359846</v>
+        <v>0.7827799879853456</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.835008303810126</v>
+        <v>0.8350046760321274</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>854</v>
@@ -3309,19 +3309,19 @@
         <v>899611</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>873961</v>
+        <v>875941</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>921982</v>
+        <v>919844</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8652687241525983</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8405973280832079</v>
+        <v>0.8425021374475976</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8867850209556214</v>
+        <v>0.8847287283165757</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1582</v>
@@ -3330,19 +3330,19 @@
         <v>1665824</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1633813</v>
+        <v>1632673</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1698213</v>
+        <v>1698348</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8398259299211982</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8236874811897014</v>
+        <v>0.8231127626256859</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8561547959456377</v>
+        <v>0.8562229576779328</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>170925</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>149280</v>
+        <v>149168</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>197316</v>
+        <v>197172</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1810943780684729</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1581617353166923</v>
+        <v>0.1580433055556238</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2090550037545069</v>
+        <v>0.2089024301702774</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>117</v>
@@ -3380,19 +3380,19 @@
         <v>119078</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>98424</v>
+        <v>98798</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>143091</v>
+        <v>140550</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.114532374923031</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09466685836051296</v>
+        <v>0.09502611860566383</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1376283873173365</v>
+        <v>0.135184639508039</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>288</v>
@@ -3401,19 +3401,19 @@
         <v>290003</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>258582</v>
+        <v>257959</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>322084</v>
+        <v>322328</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1462052381126357</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1303644471799206</v>
+        <v>0.1300503591401639</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1623788294482724</v>
+        <v>0.1625020048753244</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>6707</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2874</v>
+        <v>2808</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13398</v>
+        <v>13262</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.007106119665225163</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.003044551443710775</v>
+        <v>0.002975402273867259</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0141952334399691</v>
+        <v>0.01405136870820001</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>20</v>
@@ -3451,19 +3451,19 @@
         <v>21001</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14037</v>
+        <v>13191</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>33058</v>
+        <v>31857</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02019890092437077</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01350161683653118</v>
+        <v>0.01268709048206502</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03179561799314626</v>
+        <v>0.03064054400874196</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>27</v>
@@ -3472,19 +3472,19 @@
         <v>27708</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>18959</v>
+        <v>18931</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>40314</v>
+        <v>38479</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01396883196616609</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.009558403775398575</v>
+        <v>0.009544106903507647</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02032428267720342</v>
+        <v>0.0193991270823986</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>2801142</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2754857</v>
+        <v>2751638</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2842296</v>
+        <v>2847861</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8240962269944666</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8104791590362596</v>
+        <v>0.8095322714361195</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8362038102154329</v>
+        <v>0.8378409416792661</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2817</v>
@@ -3597,19 +3597,19 @@
         <v>3048737</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3008571</v>
+        <v>3004396</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3090803</v>
+        <v>3089064</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.865276066381469</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8538764185983738</v>
+        <v>0.8526914960056646</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8772149067998175</v>
+        <v>0.8767213704770289</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5416</v>
@@ -3618,19 +3618,19 @@
         <v>5849880</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5785672</v>
+        <v>5787001</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5908658</v>
+        <v>5910340</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8450560964739653</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8357808671514214</v>
+        <v>0.8359728622811996</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8535470719546151</v>
+        <v>0.8537900674715123</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>553893</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>513822</v>
+        <v>510064</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>600327</v>
+        <v>597433</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1629554196155028</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1511666249108851</v>
+        <v>0.1500608398341291</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1766162226127613</v>
+        <v>0.1757647683585415</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>395</v>
@@ -3668,19 +3668,19 @@
         <v>418430</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>378229</v>
+        <v>378415</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>456570</v>
+        <v>458373</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1187564873483247</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1073469266313235</v>
+        <v>0.1073997454621894</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.129581320155509</v>
+        <v>0.1300930462070378</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>936</v>
@@ -3689,19 +3689,19 @@
         <v>972323</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>917411</v>
+        <v>914748</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1032542</v>
+        <v>1033233</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1404588808906418</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1325264640453905</v>
+        <v>0.1321416972654798</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1491578952323427</v>
+        <v>0.1492576719085045</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>44012</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31588</v>
+        <v>32061</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>59959</v>
+        <v>58654</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01294835339003059</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009293137798313597</v>
+        <v>0.009432288946130483</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01764000730047602</v>
+        <v>0.01725590317841286</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>53</v>
@@ -3739,19 +3739,19 @@
         <v>56260</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>42724</v>
+        <v>43265</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>72848</v>
+        <v>75374</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01596744627020621</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01212559402864551</v>
+        <v>0.01227934980928889</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02067531596091173</v>
+        <v>0.0213921967501156</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>95</v>
@@ -3760,19 +3760,19 @@
         <v>100272</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>80705</v>
+        <v>81381</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>121835</v>
+        <v>120368</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01448502263539287</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0116583955532987</v>
+        <v>0.01175603973126024</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01759998271478757</v>
+        <v>0.01738793818340759</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>618645</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>602615</v>
+        <v>601101</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>630304</v>
+        <v>631390</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9194808607657503</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8956550636859251</v>
+        <v>0.8934052061111747</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9368098024664638</v>
+        <v>0.9384239882474066</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>609</v>
@@ -4125,19 +4125,19 @@
         <v>618709</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>602993</v>
+        <v>604298</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>630795</v>
+        <v>631042</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9234033809935599</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8999480254697948</v>
+        <v>0.9018962468264551</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9414417763334122</v>
+        <v>0.9418100379864813</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1209</v>
@@ -4146,19 +4146,19 @@
         <v>1237354</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1216786</v>
+        <v>1216282</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1256329</v>
+        <v>1255418</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9214380479008597</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9061216384366405</v>
+        <v>0.9057456957416977</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9355682857345977</v>
+        <v>0.9348899476232785</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>47984</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>36613</v>
+        <v>36002</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>62585</v>
+        <v>64045</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07131743839243476</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05441733117640348</v>
+        <v>0.05350845132821318</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09301856828917572</v>
+        <v>0.09518904080449386</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>46</v>
@@ -4196,19 +4196,19 @@
         <v>44029</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32977</v>
+        <v>32819</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>59205</v>
+        <v>57702</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06571135771715188</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04921698661615641</v>
+        <v>0.04898107510530704</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08836217341747633</v>
+        <v>0.08611773731633968</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>90</v>
@@ -4217,19 +4217,19 @@
         <v>92012</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>73922</v>
+        <v>76320</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>111545</v>
+        <v>112782</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06852021917141982</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05504887750958146</v>
+        <v>0.05683424083327986</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0830659140241151</v>
+        <v>0.08398707714109591</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>6191</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2251</v>
+        <v>2233</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13100</v>
+        <v>12552</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.00920170084181493</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.00334556082539888</v>
+        <v>0.003319353760125875</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01947042276358575</v>
+        <v>0.01865585165039406</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -4267,19 +4267,19 @@
         <v>7293</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3566</v>
+        <v>3572</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14191</v>
+        <v>14330</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01088526128928826</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.005321921525720452</v>
+        <v>0.005331551396609399</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02118012254468314</v>
+        <v>0.021386981735738</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>14</v>
@@ -4288,19 +4288,19 @@
         <v>13485</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7570</v>
+        <v>7380</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>21524</v>
+        <v>21481</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01004173292772052</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.005636974425410046</v>
+        <v>0.005495954533687751</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01602859349512059</v>
+        <v>0.01599666643673297</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>880911</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>856007</v>
+        <v>857494</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>901694</v>
+        <v>903051</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8699126889321321</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8453195679830888</v>
+        <v>0.8467880389774498</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8904363556476805</v>
+        <v>0.8917765033970521</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>849</v>
@@ -4413,19 +4413,19 @@
         <v>910124</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>888396</v>
+        <v>887817</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>930254</v>
+        <v>929953</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8781795944550117</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8572135129141434</v>
+        <v>0.8566556458600056</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8976026145971026</v>
+        <v>0.8973122406019909</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1675</v>
@@ -4434,19 +4434,19 @@
         <v>1791035</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1759170</v>
+        <v>1756559</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1821971</v>
+        <v>1819204</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8740940170442085</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8585424225609267</v>
+        <v>0.8572680994039787</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8891917223811685</v>
+        <v>0.8878415913650095</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>124454</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>104981</v>
+        <v>104314</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>148952</v>
+        <v>148357</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1229003044837518</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1036706710818371</v>
+        <v>0.1030116139947819</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1470926275703837</v>
+        <v>0.1465046110528688</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>112</v>
@@ -4484,19 +4484,19 @@
         <v>113341</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>93350</v>
+        <v>95185</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>134313</v>
+        <v>135219</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1093629948359705</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09007345916024921</v>
+        <v>0.0918441655732383</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1295986872153757</v>
+        <v>0.1304731272927902</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>222</v>
@@ -4505,19 +4505,19 @@
         <v>237795</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>207990</v>
+        <v>210172</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>270297</v>
+        <v>267868</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1160532523146549</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.101507209119007</v>
+        <v>0.1025721040242619</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1319151243801722</v>
+        <v>0.1307300905163793</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>7278</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2931</v>
+        <v>2856</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15844</v>
+        <v>16461</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007187006584116105</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002894190468613431</v>
+        <v>0.002820821857429716</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01564601292101273</v>
+        <v>0.01625588581394377</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -4555,19 +4555,19 @@
         <v>12911</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6128</v>
+        <v>6246</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22050</v>
+        <v>21788</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01245741070901774</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005913201709494467</v>
+        <v>0.006027215649168497</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02127601007750517</v>
+        <v>0.02102358340493995</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -4576,19 +4576,19 @@
         <v>20188</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12498</v>
+        <v>11989</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31753</v>
+        <v>32068</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00985273064113649</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006099696518639928</v>
+        <v>0.005851316344175515</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01549662180804474</v>
+        <v>0.0156505509831439</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>632721</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>612141</v>
+        <v>609792</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>651372</v>
+        <v>651290</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8445981834990033</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8171260328537681</v>
+        <v>0.8139902037376412</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8694939424735481</v>
+        <v>0.8693842948043352</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>591</v>
@@ -4701,19 +4701,19 @@
         <v>635244</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>610960</v>
+        <v>611058</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>655456</v>
+        <v>656297</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8191032893442003</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.787790984889333</v>
+        <v>0.7879164062632279</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8451651695111005</v>
+        <v>0.8462497075637054</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1173</v>
@@ -4722,19 +4722,19 @@
         <v>1267966</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1238872</v>
+        <v>1237921</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1297227</v>
+        <v>1299254</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8316300402341608</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8125482886450023</v>
+        <v>0.8119247943302151</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8508216890615644</v>
+        <v>0.8521516189148443</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>104335</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>86635</v>
+        <v>87914</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>124563</v>
+        <v>127706</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1392732610578831</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.115646299700007</v>
+        <v>0.1173537656632374</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1662746937016786</v>
+        <v>0.1704704512656287</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>127</v>
@@ -4772,19 +4772,19 @@
         <v>130126</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>110451</v>
+        <v>108817</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>153024</v>
+        <v>152999</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1677879657465351</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1424184571851288</v>
+        <v>0.140311855205621</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1973137393347615</v>
+        <v>0.1972821042280759</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>222</v>
@@ -4793,19 +4793,19 @@
         <v>234461</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>206122</v>
+        <v>205665</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>261121</v>
+        <v>264886</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.153777450536444</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1351905089587483</v>
+        <v>0.1348908344321771</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1712631071126223</v>
+        <v>0.1737330691577774</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>12083</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5904</v>
+        <v>5971</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22207</v>
+        <v>21211</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01612855544311357</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.007881292296362858</v>
+        <v>0.007970660958715074</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02964325733506831</v>
+        <v>0.02831367674018968</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -4843,19 +4843,19 @@
         <v>10166</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5002</v>
+        <v>5106</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18111</v>
+        <v>18062</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01310874490926461</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006450376373760845</v>
+        <v>0.006584229260914242</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02335323887628141</v>
+        <v>0.02328992595100734</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>20</v>
@@ -4864,19 +4864,19 @@
         <v>22249</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>13014</v>
+        <v>13847</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>32881</v>
+        <v>34417</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01459250922939527</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00853533615084248</v>
+        <v>0.009082053932427234</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02156588704566716</v>
+        <v>0.02257320868851318</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>779840</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>757103</v>
+        <v>756002</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>800318</v>
+        <v>801113</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8379339573614102</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8135026804230345</v>
+        <v>0.8123206346477756</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8599379616798929</v>
+        <v>0.8607912644741527</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>803</v>
@@ -4989,19 +4989,19 @@
         <v>876685</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>851334</v>
+        <v>852888</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>897845</v>
+        <v>899371</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8460045915298513</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8215404933506308</v>
+        <v>0.8230405597064535</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8664238462848618</v>
+        <v>0.8678965773034003</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1576</v>
@@ -5010,19 +5010,19 @@
         <v>1656525</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1623649</v>
+        <v>1618135</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1687511</v>
+        <v>1685750</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8421859115475286</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8254717826353403</v>
+        <v>0.8226684757780123</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8579393653315928</v>
+        <v>0.857044010449685</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>145578</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>126033</v>
+        <v>124639</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>168559</v>
+        <v>169005</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1564228927922525</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1354215121280926</v>
+        <v>0.1339238557234284</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1811162612437061</v>
+        <v>0.1815948120931587</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>140</v>
@@ -5060,19 +5060,19 @@
         <v>150427</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>129782</v>
+        <v>128099</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>175747</v>
+        <v>173482</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1451629891053261</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1252399416613876</v>
+        <v>0.1236164478769884</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1695966585776436</v>
+        <v>0.1674111795382862</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>286</v>
@@ -5081,19 +5081,19 @@
         <v>296005</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>265151</v>
+        <v>265664</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>326875</v>
+        <v>332127</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1504906954434828</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1348043880939613</v>
+        <v>0.1350651984790998</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1661848327649716</v>
+        <v>0.1688551121824653</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>5252</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1790</v>
+        <v>1807</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10645</v>
+        <v>10587</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.005643149846337297</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0019238427267305</v>
+        <v>0.001941499963049157</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01143790892961882</v>
+        <v>0.01137577408730019</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>9</v>
@@ -5131,19 +5131,19 @@
         <v>9153</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4008</v>
+        <v>4186</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17257</v>
+        <v>16345</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.008832419364822534</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.003867502553228209</v>
+        <v>0.004039873696352194</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01665326246155122</v>
+        <v>0.01577346006441349</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>15</v>
@@ -5152,19 +5152,19 @@
         <v>14405</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>8226</v>
+        <v>8580</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>23977</v>
+        <v>23233</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.00732339300898861</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.00418238466480604</v>
+        <v>0.004362364757211161</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01219001721902252</v>
+        <v>0.01181164304809504</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>2912118</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2869700</v>
+        <v>2873542</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2950750</v>
+        <v>2954204</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.865343878881221</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8527394248524789</v>
+        <v>0.8538810718422227</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8768235010284472</v>
+        <v>0.8778498448834341</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2852</v>
@@ -5277,19 +5277,19 @@
         <v>3040762</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2999024</v>
+        <v>2995853</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3078400</v>
+        <v>3079536</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8642928943842599</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8524295368410442</v>
+        <v>0.8515281164142305</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8749909484441296</v>
+        <v>0.8753136911227466</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5633</v>
@@ -5298,19 +5298,19 @@
         <v>5952880</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5895039</v>
+        <v>5887136</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6008296</v>
+        <v>6005178</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8648067113364836</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8564038678092724</v>
+        <v>0.8552557583528133</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8728572733208421</v>
+        <v>0.8724043597793661</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>422351</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>385239</v>
+        <v>381299</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>460895</v>
+        <v>459639</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1255028037162237</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.114474839136572</v>
+        <v>0.1133039396750497</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1369562686319775</v>
+        <v>0.1365831417527266</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>425</v>
@@ -5348,19 +5348,19 @@
         <v>437923</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>399195</v>
+        <v>397031</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>477885</v>
+        <v>478715</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1244732463804969</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1134655133254803</v>
+        <v>0.1128503676129982</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1358319605861917</v>
+        <v>0.136067941502483</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>820</v>
@@ -5369,19 +5369,19 @@
         <v>860274</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>804554</v>
+        <v>805881</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>914537</v>
+        <v>919396</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1249765877845921</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.116881931419496</v>
+        <v>0.1170746904492276</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1328596817914605</v>
+        <v>0.1335656215522734</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>30803</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20097</v>
+        <v>21265</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>43564</v>
+        <v>44987</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009153317402555273</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005971911731572114</v>
+        <v>0.006318888625367748</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01294518920901509</v>
+        <v>0.01336794675497199</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>38</v>
@@ -5419,19 +5419,19 @@
         <v>39523</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28701</v>
+        <v>28204</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>54185</v>
+        <v>53221</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01123385923524316</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008157800721403045</v>
+        <v>0.008016698954558013</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01540130121006203</v>
+        <v>0.01512733970932975</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>66</v>
@@ -5440,19 +5440,19 @@
         <v>70326</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>54398</v>
+        <v>54955</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>89256</v>
+        <v>89851</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01021670087892437</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007902657592385367</v>
+        <v>0.007983640461477771</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01296672821864899</v>
+        <v>0.01305308834307417</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>538986</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>511645</v>
+        <v>510411</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>560989</v>
+        <v>563417</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.7847679123183022</v>
+        <v>0.784767912318302</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7449595838815677</v>
+        <v>0.743162848828045</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8168044552581797</v>
+        <v>0.8203404231172352</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1058</v>
@@ -5805,19 +5805,19 @@
         <v>610180</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>590329</v>
+        <v>592015</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>625892</v>
+        <v>625284</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8334825481731621</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8063660727327392</v>
+        <v>0.8086701892816777</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8549446429590137</v>
+        <v>0.8541133230143305</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1657</v>
@@ -5826,19 +5826,19 @@
         <v>1149166</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1117651</v>
+        <v>1115584</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1176969</v>
+        <v>1177041</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8099024517841944</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7876913329397905</v>
+        <v>0.7862347854497309</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8294972710777596</v>
+        <v>0.8295485557188288</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>141160</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>119960</v>
+        <v>118372</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>169778</v>
+        <v>171262</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2055295840805487</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1746625341656391</v>
+        <v>0.1723503440861314</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.247198934554875</v>
+        <v>0.2493585794262271</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>163</v>
@@ -5876,19 +5876,19 @@
         <v>109231</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>93432</v>
+        <v>95011</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>126823</v>
+        <v>126204</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1492050904789828</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1276245990904006</v>
+        <v>0.1297820349723208</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1732359493883078</v>
+        <v>0.1723898499617062</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>283</v>
@@ -5897,19 +5897,19 @@
         <v>250390</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>222452</v>
+        <v>222129</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>280712</v>
+        <v>282869</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1764687036596657</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1567784970587152</v>
+        <v>0.1565510658900667</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1978383970683157</v>
+        <v>0.1993587497766232</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>6664</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3009</v>
+        <v>2753</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15075</v>
+        <v>14344</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.009702503601149142</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.00438060383026448</v>
+        <v>0.004007742494012838</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02194905134387223</v>
+        <v>0.02088474305741943</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -5947,19 +5947,19 @@
         <v>12674</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7485</v>
+        <v>7432</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>22096</v>
+        <v>21316</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01731236134785496</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0102247302344364</v>
+        <v>0.01015196806411855</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03018195939020513</v>
+        <v>0.02911616770661359</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>23</v>
@@ -5968,19 +5968,19 @@
         <v>19338</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>12061</v>
+        <v>12130</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>29067</v>
+        <v>30815</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01362884455613999</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.008500449506792296</v>
+        <v>0.008548967477881215</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0204856187566068</v>
+        <v>0.02171765750390243</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>889154</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>858644</v>
+        <v>860837</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>914106</v>
+        <v>915579</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8486486926425101</v>
+        <v>0.84864869264251</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8195284158750069</v>
+        <v>0.8216215210049487</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8724642769080607</v>
+        <v>0.8738696767526724</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1319</v>
@@ -6093,19 +6093,19 @@
         <v>914116</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>891333</v>
+        <v>892788</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>932928</v>
+        <v>934857</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8542516963449707</v>
+        <v>0.8542516963449708</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8329608759353562</v>
+        <v>0.8343200516809898</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8718315382817874</v>
+        <v>0.8736344027237707</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2148</v>
@@ -6114,19 +6114,19 @@
         <v>1803270</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1769811</v>
+        <v>1766955</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1835066</v>
+        <v>1837778</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8514797593370288</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8356808051380289</v>
+        <v>0.8343325232848573</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8664935044813883</v>
+        <v>0.8677740650159489</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>139026</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>115497</v>
+        <v>114349</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>168501</v>
+        <v>167300</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1326927924903959</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1102350997760879</v>
+        <v>0.1091395288584482</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1608252002943206</v>
+        <v>0.1596791142246282</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>174</v>
@@ -6164,19 +6164,19 @@
         <v>138457</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>119266</v>
+        <v>118638</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>160396</v>
+        <v>158328</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1293894617869424</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1114554245559725</v>
+        <v>0.1108688592316404</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1498922753136247</v>
+        <v>0.1479596753822393</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>293</v>
@@ -6185,19 +6185,19 @@
         <v>277483</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>247623</v>
+        <v>244961</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>310124</v>
+        <v>312433</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1310236967638624</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1169240931228856</v>
+        <v>0.1156672775829242</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1464365879529244</v>
+        <v>0.1475265622649805</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>19549</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10231</v>
+        <v>11020</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33709</v>
+        <v>33846</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01865851486709396</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009765339368723759</v>
+        <v>0.01051820275720412</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0321735679116421</v>
+        <v>0.0323046313469517</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -6235,19 +6235,19 @@
         <v>17505</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11264</v>
+        <v>11193</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27191</v>
+        <v>26474</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01635884186808696</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01052597624756248</v>
+        <v>0.01045991109916604</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02541011653286776</v>
+        <v>0.02474059131533051</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -6256,19 +6256,19 @@
         <v>37054</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25240</v>
+        <v>24806</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51095</v>
+        <v>53476</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01749654389910875</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01191818064710858</v>
+        <v>0.01171282554659929</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02412626379427075</v>
+        <v>0.02525071888389496</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>652259</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>624229</v>
+        <v>623249</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>679289</v>
+        <v>676683</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8146447147235851</v>
+        <v>0.814644714723585</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7796366841723156</v>
+        <v>0.7784123201134425</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8484039134449757</v>
+        <v>0.8451496578330597</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>921</v>
@@ -6381,19 +6381,19 @@
         <v>701936</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>682621</v>
+        <v>678353</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>720632</v>
+        <v>719694</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8663603160400473</v>
+        <v>0.8663603160400472</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8425213118998932</v>
+        <v>0.8372543138177737</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8894364487330081</v>
+        <v>0.8882782367460884</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1488</v>
@@ -6402,19 +6402,19 @@
         <v>1354195</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1320429</v>
+        <v>1321459</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1385083</v>
+        <v>1384838</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8406557432326177</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8196949913729999</v>
+        <v>0.8203343283937814</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8598308138735451</v>
+        <v>0.8596786603529045</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>130347</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>105635</v>
+        <v>107346</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>158089</v>
+        <v>158629</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1627985298452397</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1319339971639051</v>
+        <v>0.1340708076326904</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1974471726143057</v>
+        <v>0.1981213199511425</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>102</v>
@@ -6452,19 +6452,19 @@
         <v>88272</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>72067</v>
+        <v>71098</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>106240</v>
+        <v>108231</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.108948770550983</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08894801334265826</v>
+        <v>0.0877528782771764</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1311257596746427</v>
+        <v>0.1335832725711859</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>196</v>
@@ -6473,19 +6473,19 @@
         <v>218619</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>187615</v>
+        <v>188498</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>249649</v>
+        <v>251864</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1357140990631966</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1164672693688575</v>
+        <v>0.1170153547745162</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1549767153057908</v>
+        <v>0.1563518129712254</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>18060</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9075</v>
+        <v>10171</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>30427</v>
+        <v>31667</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02255675543117517</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01133471746547546</v>
+        <v>0.01270331404737638</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03800179598980834</v>
+        <v>0.03955028520816255</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -6523,19 +6523,19 @@
         <v>20005</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11837</v>
+        <v>12619</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>30507</v>
+        <v>31031</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02469091340896975</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01460970081090048</v>
+        <v>0.01557519561344064</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03765360989442246</v>
+        <v>0.03829923544803907</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>35</v>
@@ -6544,19 +6544,19 @@
         <v>38065</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>25978</v>
+        <v>26718</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>55307</v>
+        <v>55818</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02363015770418565</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01612684972219339</v>
+        <v>0.01658576446372562</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03433344629364107</v>
+        <v>0.03465083867283083</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>846669</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>818785</v>
+        <v>821551</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>868543</v>
+        <v>869019</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8551677964448674</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8270039839269077</v>
+        <v>0.8297976266861669</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8772614443527904</v>
+        <v>0.8777418255326915</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1433</v>
@@ -6669,19 +6669,19 @@
         <v>1007038</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>985112</v>
+        <v>987023</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1025728</v>
+        <v>1026121</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.9005214312497994</v>
+        <v>0.9005214312497997</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8809148267322453</v>
+        <v>0.8826233394420071</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.917234534520017</v>
+        <v>0.9175864316753573</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2308</v>
@@ -6690,19 +6690,19 @@
         <v>1853707</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1821130</v>
+        <v>1822264</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1884673</v>
+        <v>1886390</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.879223718099043</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8637724706810653</v>
+        <v>0.8643100129862654</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8939109669304354</v>
+        <v>0.8947253376106712</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>127460</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>108121</v>
+        <v>105480</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>155667</v>
+        <v>152505</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1287391423698153</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1092065298857493</v>
+        <v>0.1065388372928464</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1572293183658311</v>
+        <v>0.1540354317858166</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>118</v>
@@ -6740,19 +6740,19 @@
         <v>104003</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>85560</v>
+        <v>86070</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>125532</v>
+        <v>124057</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.09300216715315048</v>
+        <v>0.09300216715315049</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07651029443953734</v>
+        <v>0.07696577205116195</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1122538350007748</v>
+        <v>0.1109354807559989</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>234</v>
@@ -6761,19 +6761,19 @@
         <v>231462</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>202554</v>
+        <v>201219</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>262731</v>
+        <v>263448</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1097839719702025</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09607257511375313</v>
+        <v>0.09543939651861789</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.124614944568052</v>
+        <v>0.1249550049484944</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>15933</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9004</v>
+        <v>9092</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>27656</v>
+        <v>26527</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01609306118531728</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.009094205954775815</v>
+        <v>0.009183311832622396</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02793347966883425</v>
+        <v>0.02679375371886688</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>10</v>
@@ -6811,19 +6811,19 @@
         <v>7242</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3530</v>
+        <v>3825</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12445</v>
+        <v>13082</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.006476401597049958</v>
+        <v>0.00647640159704996</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.003156956308933638</v>
+        <v>0.003420445512148834</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01112894534398952</v>
+        <v>0.0116987365475768</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>25</v>
@@ -6832,19 +6832,19 @@
         <v>23176</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>15411</v>
+        <v>15851</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>34474</v>
+        <v>35937</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.01099230993075461</v>
+        <v>0.01099230993075462</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.007309497207740412</v>
+        <v>0.007518296220192396</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0163509996461407</v>
+        <v>0.01704525288272588</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>2927068</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2876345</v>
+        <v>2873964</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2982013</v>
+        <v>2973883</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8303109469565282</v>
+        <v>0.8303109469565281</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8159226741414348</v>
+        <v>0.815247318736721</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8458969496907122</v>
+        <v>0.8435907852154841</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4731</v>
@@ -6957,19 +6957,19 @@
         <v>3233269</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3192500</v>
+        <v>3191452</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3270878</v>
+        <v>3272721</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8666753505185365</v>
+        <v>0.8666753505185366</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8557470912014702</v>
+        <v>0.8554663252050059</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8767564083376427</v>
+        <v>0.8772503428266534</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7601</v>
@@ -6978,19 +6978,19 @@
         <v>6160337</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6098622</v>
+        <v>6088335</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6228286</v>
+        <v>6220049</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8490078270554207</v>
+        <v>0.8490078270554208</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8405023230017338</v>
+        <v>0.8390846785831384</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8583724706082518</v>
+        <v>0.8572372825323891</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>537993</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>490276</v>
+        <v>493035</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>584571</v>
+        <v>588093</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1526105147462347</v>
+        <v>0.1526105147462346</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1390748030809322</v>
+        <v>0.1398575833334949</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1658232797748735</v>
+        <v>0.166822161472444</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>557</v>
@@ -7028,19 +7028,19 @@
         <v>439962</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>405209</v>
+        <v>403417</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>479270</v>
+        <v>477639</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1179314695839762</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1086160135844073</v>
+        <v>0.1081356807936664</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1284678515871077</v>
+        <v>0.1280307127063859</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1006</v>
@@ -7049,19 +7049,19 @@
         <v>977955</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>911584</v>
+        <v>918112</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1038266</v>
+        <v>1048146</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1347801673231787</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1256329846118694</v>
+        <v>0.1265327512480832</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1430922064931723</v>
+        <v>0.1444538461672995</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>60206</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44190</v>
+        <v>44259</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>79323</v>
+        <v>79171</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01707853829723725</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01253531565375508</v>
+        <v>0.01255493392730842</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02250115623867711</v>
+        <v>0.02245817622945288</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>70</v>
@@ -7099,19 +7099,19 @@
         <v>57427</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>45701</v>
+        <v>45169</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>74172</v>
+        <v>73712</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01539317989748721</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01225005030813078</v>
+        <v>0.01210762330382762</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01988163131071137</v>
+        <v>0.01975847898467285</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>120</v>
@@ -7120,19 +7120,19 @@
         <v>117633</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>96943</v>
+        <v>98401</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>144897</v>
+        <v>142918</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.01621200562140068</v>
+        <v>0.01621200562140069</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01336047961593701</v>
+        <v>0.01356141123181187</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01996941648219766</v>
+        <v>0.01969679674492376</v>
       </c>
     </row>
     <row r="23">
